--- a/players_stats/Dajuan Wagner.xlsx
+++ b/players_stats/Dajuan Wagner.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,110 +369,175 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Season</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Pos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FG</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FGA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FG%</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>3P</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3PA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3P%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2PA</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2P%</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>eFG%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>DRB</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>TOV</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -482,183 +547,613 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1949-50</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SHE</t>
-        </is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>.352</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>.886</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1385</v>
+      </c>
+      <c r="K2" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="N2" t="n">
+        <v>55</v>
+      </c>
+      <c r="O2" t="n">
+        <v>174</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>168</v>
+      </c>
+      <c r="R2" t="n">
+        <v>431</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="U2" t="n">
+        <v>128</v>
+      </c>
+      <c r="V2" t="n">
+        <v>160</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>629</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 188</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>112</v>
+      </c>
+      <c r="L3" t="n">
+        <v>306</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>86</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>81</v>
+      </c>
+      <c r="R3" t="n">
+        <v>220</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>32</v>
+      </c>
+      <c r="V3" t="n">
+        <v>47</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6809999999999999</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>89</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>287</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 188</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>55</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 188</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 188</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>.352</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>.886</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>103</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2202</v>
+      </c>
+      <c r="K6" t="n">
+        <v>354</v>
+      </c>
+      <c r="L6" t="n">
+        <v>967</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>92</v>
+      </c>
+      <c r="O6" t="n">
+        <v>287</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>262</v>
+      </c>
+      <c r="R6" t="n">
+        <v>680</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="U6" t="n">
+        <v>164</v>
+      </c>
+      <c r="V6" t="n">
+        <v>213</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>195</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>136</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>212</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>964</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 188</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
